--- a/alumni.xlsx
+++ b/alumni.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,40 +33,40 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Christian Paranas</t>
-  </si>
-  <si>
-    <t>christian.paranas@evsu.edu.ph</t>
-  </si>
-  <si>
-    <t>Lugi Loreno</t>
-  </si>
-  <si>
-    <t>2018-02022</t>
-  </si>
-  <si>
-    <t>luigi.loreno@evsu.edu.ph</t>
-  </si>
-  <si>
-    <t>2018-02023</t>
-  </si>
-  <si>
-    <t>Shiela Mae Narido</t>
-  </si>
-  <si>
-    <t>shielamae.narido@evsu.edu.ph</t>
-  </si>
-  <si>
-    <t>2018-02024</t>
-  </si>
-  <si>
     <t>Class</t>
+  </si>
+  <si>
+    <t>smith@evsu.edu.ph</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>karina</t>
+  </si>
+  <si>
+    <t>karina@evsu.edu.ph</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>maria@evsu.edu.ph</t>
+  </si>
+  <si>
+    <t>2018-02030</t>
+  </si>
+  <si>
+    <t>2018-02031</t>
+  </si>
+  <si>
+    <t>2018-02032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -179,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -391,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,7 +397,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,18 +422,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -450,13 +445,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -468,13 +463,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -491,8 +486,9 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>